--- a/data/raw/Average_Price_Milk_Fresh_Whole_Fortified_Cost_per_Gallon38_Liters_in_US_City_Average_data.xlsx
+++ b/data/raw/Average_Price_Milk_Fresh_Whole_Fortified_Cost_per_Gallon38_Liters_in_US_City_Average_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -27,78 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.241</t>
   </si>
   <si>
     <t xml:space="preserve">2006-01-01</t>
@@ -1954,7 +1882,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1965,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1979,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -1993,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2007,10 +1935,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -2021,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -2035,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -2049,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -2063,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -2077,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -2091,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -2105,10 +2033,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -2119,10 +2047,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -2220,7 +2148,7 @@
         <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -2231,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -2245,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
         <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2259,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
         <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -2273,10 +2201,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
         <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -2287,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
         <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -2301,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
         <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -2315,10 +2243,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
         <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -2329,10 +2257,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
         <v>84</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -2343,10 +2271,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
         <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -2357,10 +2285,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
         <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="45">
@@ -2371,10 +2299,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" t="s">
         <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -2385,10 +2313,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
         <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47">
@@ -2738,7 +2666,7 @@
         <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72">
@@ -2749,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
         <v>143</v>
-      </c>
-      <c r="D72" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -2763,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
         <v>145</v>
-      </c>
-      <c r="D73" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -2777,10 +2705,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
         <v>147</v>
-      </c>
-      <c r="D74" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -2791,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
         <v>149</v>
-      </c>
-      <c r="D75" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -2805,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
         <v>151</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="77">
@@ -2819,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" t="s">
         <v>153</v>
-      </c>
-      <c r="D77" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="78">
@@ -2833,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
@@ -2847,10 +2775,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80">
@@ -2861,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81">
@@ -2875,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82">
@@ -2889,10 +2817,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83">
@@ -2903,10 +2831,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84">
@@ -2917,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
@@ -2931,10 +2859,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86">
@@ -2945,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87">
@@ -2959,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88">
@@ -2973,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89">
@@ -2987,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90">
@@ -3001,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91">
@@ -3015,10 +2943,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92">
@@ -3029,10 +2957,10 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -3043,10 +2971,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94">
@@ -3057,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
@@ -3071,10 +2999,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96">
@@ -3085,10 +3013,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97">
@@ -3099,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98">
@@ -3113,10 +3041,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99">
@@ -3127,10 +3055,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100">
@@ -3141,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101">
@@ -3155,10 +3083,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102">
@@ -3169,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
         <v>199</v>
-      </c>
-      <c r="D102" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="103">
@@ -3183,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
         <v>201</v>
-      </c>
-      <c r="D103" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="104">
@@ -3197,10 +3125,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
         <v>203</v>
-      </c>
-      <c r="D104" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="105">
@@ -3211,10 +3139,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" t="s">
         <v>205</v>
-      </c>
-      <c r="D105" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="106">
@@ -3225,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" t="s">
         <v>207</v>
-      </c>
-      <c r="D106" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="107">
@@ -3452,7 +3380,7 @@
         <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
@@ -3463,10 +3391,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
+        <v>239</v>
+      </c>
+      <c r="D123" t="s">
         <v>240</v>
-      </c>
-      <c r="D123" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="124">
@@ -3477,10 +3405,10 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
+        <v>241</v>
+      </c>
+      <c r="D124" t="s">
         <v>242</v>
-      </c>
-      <c r="D124" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="125">
@@ -3491,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" t="s">
         <v>244</v>
-      </c>
-      <c r="D125" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="126">
@@ -3505,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" t="s">
         <v>246</v>
-      </c>
-      <c r="D126" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="127">
@@ -3519,10 +3447,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" t="s">
         <v>248</v>
-      </c>
-      <c r="D127" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="128">
@@ -3533,10 +3461,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" t="s">
         <v>250</v>
-      </c>
-      <c r="D128" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="129">
@@ -3547,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" t="s">
         <v>252</v>
-      </c>
-      <c r="D129" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="130">
@@ -3561,10 +3489,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" t="s">
         <v>254</v>
-      </c>
-      <c r="D130" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="131">
@@ -3575,10 +3503,10 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" t="s">
         <v>256</v>
-      </c>
-      <c r="D131" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="132">
@@ -3589,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
+        <v>257</v>
+      </c>
+      <c r="D132" t="s">
         <v>258</v>
-      </c>
-      <c r="D132" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="133">
@@ -3603,10 +3531,10 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
+        <v>259</v>
+      </c>
+      <c r="D133" t="s">
         <v>260</v>
-      </c>
-      <c r="D133" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="134">
@@ -3617,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
@@ -3631,10 +3559,10 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" t="s">
         <v>263</v>
-      </c>
-      <c r="D135" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="136">
@@ -3645,10 +3573,10 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" t="s">
         <v>265</v>
-      </c>
-      <c r="D136" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="137">
@@ -3659,10 +3587,10 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D137" t="s">
-        <v>268</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138">
@@ -3673,10 +3601,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139">
@@ -3687,10 +3615,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140">
@@ -3701,10 +3629,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141">
@@ -3715,10 +3643,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142">
@@ -3729,10 +3657,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143">
@@ -3743,10 +3671,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144">
@@ -3757,10 +3685,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145">
@@ -3771,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D145" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146">
@@ -3785,10 +3713,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D146" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147">
@@ -3799,10 +3727,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148">
@@ -3813,10 +3741,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149">
@@ -3827,10 +3755,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150">
@@ -3841,10 +3769,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
+        <v>290</v>
+      </c>
+      <c r="D150" t="s">
         <v>291</v>
-      </c>
-      <c r="D150" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="151">
@@ -3855,10 +3783,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
+        <v>292</v>
+      </c>
+      <c r="D151" t="s">
         <v>293</v>
-      </c>
-      <c r="D151" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3797,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
+        <v>294</v>
+      </c>
+      <c r="D152" t="s">
         <v>295</v>
-      </c>
-      <c r="D152" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="153">
@@ -3883,10 +3811,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
+        <v>296</v>
+      </c>
+      <c r="D153" t="s">
         <v>297</v>
-      </c>
-      <c r="D153" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="154">
@@ -3897,10 +3825,10 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" t="s">
         <v>299</v>
-      </c>
-      <c r="D154" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="155">
@@ -3911,10 +3839,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
+        <v>300</v>
+      </c>
+      <c r="D155" t="s">
         <v>301</v>
-      </c>
-      <c r="D155" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="156">
@@ -3925,10 +3853,10 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D156" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157">
@@ -3939,10 +3867,10 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D157" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158">
@@ -3953,10 +3881,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D158" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159">
@@ -3967,10 +3895,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160">
@@ -3981,10 +3909,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161">
@@ -3995,10 +3923,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162">
@@ -4009,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163">
@@ -4023,10 +3951,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164">
@@ -4037,10 +3965,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165">
@@ -4051,10 +3979,10 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166">
@@ -4065,10 +3993,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167">
@@ -4079,10 +4007,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168">
@@ -4093,10 +4021,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169">
@@ -4107,10 +4035,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D169" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170">
@@ -4121,10 +4049,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D170" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171">
@@ -4135,10 +4063,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
+        <v>329</v>
+      </c>
+      <c r="D171" t="s">
         <v>330</v>
-      </c>
-      <c r="D171" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="172">
@@ -4149,10 +4077,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
+        <v>331</v>
+      </c>
+      <c r="D172" t="s">
         <v>332</v>
-      </c>
-      <c r="D172" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="173">
@@ -4163,10 +4091,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
+        <v>333</v>
+      </c>
+      <c r="D173" t="s">
         <v>334</v>
-      </c>
-      <c r="D173" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="174">
@@ -4177,10 +4105,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
+        <v>335</v>
+      </c>
+      <c r="D174" t="s">
         <v>336</v>
-      </c>
-      <c r="D174" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="175">
@@ -4191,10 +4119,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
+        <v>337</v>
+      </c>
+      <c r="D175" t="s">
         <v>338</v>
-      </c>
-      <c r="D175" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="176">
@@ -4205,10 +4133,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
+        <v>339</v>
+      </c>
+      <c r="D176" t="s">
         <v>340</v>
-      </c>
-      <c r="D176" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="177">
@@ -4219,10 +4147,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
+        <v>341</v>
+      </c>
+      <c r="D177" t="s">
         <v>342</v>
-      </c>
-      <c r="D177" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="178">
@@ -4233,10 +4161,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D178" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179">
@@ -4247,10 +4175,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180">
@@ -4261,10 +4189,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181">
@@ -4275,10 +4203,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D181" t="s">
-        <v>128</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182">
@@ -4289,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
+        <v>350</v>
+      </c>
+      <c r="D182" t="s">
         <v>351</v>
-      </c>
-      <c r="D182" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="183">
@@ -4303,10 +4231,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
+        <v>352</v>
+      </c>
+      <c r="D183" t="s">
         <v>353</v>
-      </c>
-      <c r="D183" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="184">
@@ -4317,10 +4245,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
+        <v>354</v>
+      </c>
+      <c r="D184" t="s">
         <v>355</v>
-      </c>
-      <c r="D184" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="185">
@@ -4331,10 +4259,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
+        <v>356</v>
+      </c>
+      <c r="D185" t="s">
         <v>357</v>
-      </c>
-      <c r="D185" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="186">
@@ -4345,10 +4273,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
+        <v>358</v>
+      </c>
+      <c r="D186" t="s">
         <v>359</v>
-      </c>
-      <c r="D186" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="187">
@@ -4359,10 +4287,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D187" t="s">
-        <v>362</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188">
@@ -4373,10 +4301,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D188" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189">
@@ -4387,10 +4315,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D189" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190">
@@ -4401,10 +4329,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D190" t="s">
-        <v>206</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191">
@@ -4415,10 +4343,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
+        <v>367</v>
+      </c>
+      <c r="D191" t="s">
         <v>368</v>
-      </c>
-      <c r="D191" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="192">
@@ -4429,10 +4357,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
+        <v>369</v>
+      </c>
+      <c r="D192" t="s">
         <v>370</v>
-      </c>
-      <c r="D192" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="193">
@@ -4443,10 +4371,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
+        <v>371</v>
+      </c>
+      <c r="D193" t="s">
         <v>372</v>
-      </c>
-      <c r="D193" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="194">
@@ -4457,10 +4385,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
+        <v>373</v>
+      </c>
+      <c r="D194" t="s">
         <v>374</v>
-      </c>
-      <c r="D194" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="195">
@@ -4471,10 +4399,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
+        <v>375</v>
+      </c>
+      <c r="D195" t="s">
         <v>376</v>
-      </c>
-      <c r="D195" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="196">
@@ -4485,10 +4413,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
+        <v>377</v>
+      </c>
+      <c r="D196" t="s">
         <v>378</v>
-      </c>
-      <c r="D196" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="197">
@@ -4499,10 +4427,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
+        <v>379</v>
+      </c>
+      <c r="D197" t="s">
         <v>380</v>
-      </c>
-      <c r="D197" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="198">
@@ -4513,10 +4441,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
+        <v>381</v>
+      </c>
+      <c r="D198" t="s">
         <v>382</v>
-      </c>
-      <c r="D198" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="199">
@@ -4527,10 +4455,10 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
+        <v>383</v>
+      </c>
+      <c r="D199" t="s">
         <v>384</v>
-      </c>
-      <c r="D199" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="200">
@@ -4628,7 +4556,7 @@
         <v>397</v>
       </c>
       <c r="D206" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="207">
@@ -4639,10 +4567,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
+        <v>398</v>
+      </c>
+      <c r="D207" t="s">
         <v>399</v>
-      </c>
-      <c r="D207" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="208">
@@ -4653,10 +4581,10 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
+        <v>400</v>
+      </c>
+      <c r="D208" t="s">
         <v>401</v>
-      </c>
-      <c r="D208" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="209">
@@ -4667,10 +4595,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
+        <v>402</v>
+      </c>
+      <c r="D209" t="s">
         <v>403</v>
-      </c>
-      <c r="D209" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="210">
@@ -4681,10 +4609,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D210" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="211">
@@ -4695,10 +4623,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D211" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212">
@@ -4709,10 +4637,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D212" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="213">
@@ -4723,10 +4651,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D213" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="214">
@@ -4737,10 +4665,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215">
@@ -4751,10 +4679,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D215" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="216">
@@ -4765,10 +4693,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D216" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="217">
@@ -4779,10 +4707,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D217" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218">
@@ -4793,10 +4721,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D218" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="219">
@@ -4807,10 +4735,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D219" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="220">
@@ -4821,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D220" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="221">
@@ -4835,10 +4763,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D221" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="222">
@@ -4849,7 +4777,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D222" t="s">
         <v>427</v>
@@ -4863,10 +4791,10 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
+        <v>428</v>
+      </c>
+      <c r="D223" t="s">
         <v>429</v>
-      </c>
-      <c r="D223" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="224">
@@ -4877,10 +4805,10 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
+        <v>430</v>
+      </c>
+      <c r="D224" t="s">
         <v>431</v>
-      </c>
-      <c r="D224" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="225">
@@ -4891,10 +4819,10 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
+        <v>432</v>
+      </c>
+      <c r="D225" t="s">
         <v>433</v>
-      </c>
-      <c r="D225" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="226">
@@ -4905,10 +4833,10 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
+        <v>434</v>
+      </c>
+      <c r="D226" t="s">
         <v>435</v>
-      </c>
-      <c r="D226" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="227">
@@ -4919,10 +4847,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
+        <v>436</v>
+      </c>
+      <c r="D227" t="s">
         <v>437</v>
-      </c>
-      <c r="D227" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="228">
@@ -4965,174 +4893,6 @@
       </c>
       <c r="D230" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>444</v>
-      </c>
-      <c r="D231" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>446</v>
-      </c>
-      <c r="D232" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>448</v>
-      </c>
-      <c r="D233" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>450</v>
-      </c>
-      <c r="D234" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>452</v>
-      </c>
-      <c r="D235" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>454</v>
-      </c>
-      <c r="D236" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>456</v>
-      </c>
-      <c r="D237" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>458</v>
-      </c>
-      <c r="D238" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>460</v>
-      </c>
-      <c r="D239" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>462</v>
-      </c>
-      <c r="D240" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>464</v>
-      </c>
-      <c r="D241" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>466</v>
-      </c>
-      <c r="D242" t="s">
-        <v>467</v>
       </c>
     </row>
   </sheetData>
